--- a/历史策略结果.xlsx
+++ b/历史策略结果.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -154,10 +154,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -171,12 +171,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -218,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,41 +467,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G36" sqref="F29:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="N1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -974,11 +977,11 @@
       <c r="N11" s="2">
         <v>5</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>10</v>
       </c>
     </row>
@@ -1076,11 +1079,11 @@
       <c r="N13" s="1">
         <v>0</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1499,59 +1502,59 @@
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="F27" s="3" t="s">
+      <c r="D27" s="4"/>
+      <c r="F27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="K27" s="3" t="s">
+      <c r="I27" s="4"/>
+      <c r="K27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3" t="s">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="P27" s="3" t="s">
+      <c r="N27" s="4"/>
+      <c r="P27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3" t="s">
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S27" s="3"/>
+      <c r="S27" s="4"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1989,25 +1992,25 @@
       <c r="L37" s="2">
         <v>4</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="3">
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="3">
         <v>3</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="3">
         <f t="shared" si="23"/>
         <v>10</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="3">
         <v>1</v>
       </c>
-      <c r="R37" s="4">
+      <c r="R37" s="3">
         <f t="shared" si="23"/>
         <v>10</v>
       </c>
-      <c r="S37" s="4">
+      <c r="S37" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2040,11 +2043,11 @@
       <c r="I38" s="1">
         <v>0</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="3">
         <f t="shared" si="21"/>
         <v>11</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="3">
         <v>0</v>
       </c>
       <c r="M38" s="2">
@@ -2142,18 +2145,18 @@
       <c r="D40" s="1">
         <v>0</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <f>F39+1</f>
         <v>13</v>
       </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
         <f>H39+1</f>
         <v>13</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>0</v>
       </c>
       <c r="K40" s="1">
@@ -2596,35 +2599,30 @@
       <c r="N48" s="5"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="P27:Q27"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="A49:S49"/>
     <mergeCell ref="A27:B27"/>
@@ -2632,6 +2630,11 @@
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="K27:L27"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="P27:Q27"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G1"/>

--- a/历史策略结果.xlsx
+++ b/历史策略结果.xlsx
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G36" sqref="F29:G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2623,13 +2623,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="A49:S49"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K27:L27"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A23:Q23"/>
     <mergeCell ref="M27:N27"/>
@@ -2642,6 +2635,13 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="A49:S49"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:L27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
